--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1975338.841987896</v>
+        <v>1993713.531454018</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>167.6184971013519</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>4.553858340638264</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>27.00879565572094</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.26583888007716</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
-        <v>155.103896319603</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>280.3612400821518</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>134.6751203255739</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>150.824233262766</v>
+        <v>143.7191955381066</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>59.71215406761515</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7644211441608035</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249799</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051966</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678471</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>73.95273020923017</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>159.2830655961215</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465756</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.3062600431718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>131.6255386195488</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2494,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>66.14085215535493</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>199.8217265445594</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2965,10 +2965,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>60.61661699143662</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +2998,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>146.1854691670917</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385032</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>10.04116767962334</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3478,13 +3478,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>146.185469167092</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>180.2851782418414</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,7 +3670,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>14.73664328357051</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>125.8199811479242</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4138,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.24018360678657</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1273.280804219765</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C2" t="n">
-        <v>1273.280804219765</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D2" t="n">
-        <v>1273.280804219765</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>887.4925516215208</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>476.5066468319132</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>58.54283873010007</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y2" t="n">
-        <v>1659.880644283887</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C4" t="n">
-        <v>546.4805193761945</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D4" t="n">
-        <v>396.3638799638587</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>295.8809182883532</v>
       </c>
     </row>
     <row r="5">
@@ -4562,13 +4562,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2540.478488675189</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2321.843821647252</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2068.082036285343</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V5" t="n">
-        <v>1737.019148941773</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="W5" t="n">
-        <v>1737.019148941773</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.553390680693</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551153</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600566</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1309.714918859356</v>
+        <v>1139.506187451446</v>
       </c>
       <c r="C8" t="n">
-        <v>1309.714918859356</v>
+        <v>770.543670511034</v>
       </c>
       <c r="D8" t="n">
-        <v>951.4492202526051</v>
+        <v>770.543670511034</v>
       </c>
       <c r="E8" t="n">
-        <v>951.4492202526051</v>
+        <v>770.543670511034</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491379</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1916.245359491379</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>1916.245359491379</v>
       </c>
       <c r="Y8" t="n">
-        <v>1309.714918859356</v>
+        <v>1526.106027515567</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="U10" t="n">
-        <v>99.59950625323012</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5030,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5048,22 +5048,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5106,16 +5106,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5127,7 +5127,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.0071030383442</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>675.0071030383442</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>675.0071030383442</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
         <v>674.2349604684848</v>
@@ -5194,7 +5194,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.0071030383442</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,34 +5288,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5358,25 +5358,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>474.7746905116409</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>721.5398184181049</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1028.859951698067</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,13 +5513,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2471.066311049162</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>2881.956579893675</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>3128.721707800139</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>3436.041841080101</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>3765.904468744134</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>4045.444533962831</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>807.0580565471719</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>638.121873619265</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>488.0052342069292</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>340.0921406245361</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.7065213774116</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,25 +5832,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4503.139178847516</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="C22" t="n">
-        <v>4334.202995919609</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>4184.086356507273</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924874</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426963</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014292</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>4860.854573014292</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X22" t="n">
-        <v>4860.854573014292</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="Y22" t="n">
-        <v>4684.787643677755</v>
+        <v>1133.156678913841</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,43 +5972,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>2801.004654415706</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>3569.372800808167</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>3899.2354284722</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4391.604587469457</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="C25" t="n">
-        <v>4222.66840454155</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="D25" t="n">
-        <v>4072.551765129214</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>3924.638671546821</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048911</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368731</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>4860.854573014292</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>4860.854573014292</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X25" t="n">
-        <v>4794.045631443227</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y25" t="n">
-        <v>4573.253052299697</v>
+        <v>955.1031435655738</v>
       </c>
     </row>
     <row r="26">
@@ -6206,31 +6206,31 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028587</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1375.025382843599</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1151.239967633105</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>862.1113288466635</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>607.4268406407766</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="W28" t="n">
-        <v>318.0096706038159</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="29">
@@ -6440,67 +6440,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>3907.324136615208</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>4237.18676427924</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3889.283315426965</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="C31" t="n">
-        <v>3889.283315426965</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="D31" t="n">
-        <v>3889.283315426965</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="E31" t="n">
-        <v>3889.283315426965</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426965</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746786</v>
+        <v>158.445997512242</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.859459491671</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281177</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>4036.945405494735</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>4036.945405494735</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W31" t="n">
-        <v>3889.283315426965</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X31" t="n">
-        <v>3889.283315426965</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="Y31" t="n">
-        <v>3889.283315426965</v>
+        <v>326.6213191924214</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
@@ -6731,13 +6731,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6783,13 +6783,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4344.345589535385</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C34" t="n">
-        <v>4334.202995919604</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.086356507269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4525.994054365625</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4525.994054365625</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>4525.994054365625</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>4525.994054365625</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>4525.994054365625</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>4525.994054365625</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6944,19 +6944,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6974,13 +6974,13 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7126,10 +7126,10 @@
         <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V37" t="n">
-        <v>527.3450129705745</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W37" t="n">
         <v>527.3450129705745</v>
@@ -7151,46 +7151,46 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028587</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1484.03077229167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1484.03077229167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1484.03077229167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1484.03077229167</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>1484.03077229167</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>1194.613602254709</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>966.6240513566914</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y40" t="n">
-        <v>745.8314722131613</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
@@ -7436,19 +7436,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>654.1345339792618</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>654.1345339792618</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>504.0178945669261</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>504.0178945669261</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>504.0178945669261</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>335.8425728867467</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>874.927113122792</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>874.927113122792</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>654.1345339792618</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7673,25 +7673,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
@@ -7734,7 +7734,7 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
         <v>2051.878056918008</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4282.30876419089</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>4282.30876419089</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>4571.72593422785</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>4571.72593422785</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>4282.30876419089</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>4282.30876419089</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>4282.30876419089</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093289</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>62.79465928983115</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814543</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>85.30006332127709</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,16 +9720,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978135</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>73.53204524670008</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,16 +10194,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10431,16 +10431,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11382,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>145.6695415024084</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533521012</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>71.46831781370108</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>7.963755502506359</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24184,7 +24184,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.27839330892297</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>16.98993439866351</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365974</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>159.5688032336822</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>75.26883114644322</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>52.3159167792686</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>88.29721137609951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24886,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>140.3375291694993</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>157.2056534190045</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>30.12558851170024</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>105.952174156736</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>106.2378200947497</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>44.93311153869659</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>95.22770912022227</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25603,19 +25603,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25789,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>23.09384721961193</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>51.37528941142578</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26071,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>869228.2302978005</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>869228.2302978006</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.230297801</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="G2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="H2" t="n">
-        <v>527889.2306459066</v>
-      </c>
       <c r="I2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459073</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
       <c r="N2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="P2" t="n">
         <v>527889.2306459071</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029913</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029914</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029912</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029912</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029911</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,10 +26485,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295642.861104831</v>
+        <v>-293114.5399413885</v>
       </c>
       <c r="C6" t="n">
-        <v>294325.0181097133</v>
+        <v>296853.3392731556</v>
       </c>
       <c r="D6" t="n">
-        <v>294325.0181097131</v>
+        <v>296853.3392731554</v>
       </c>
       <c r="E6" t="n">
-        <v>-120596.4965700051</v>
+        <v>-118561.6773320079</v>
       </c>
       <c r="F6" t="n">
-        <v>404563.5399068912</v>
+        <v>406598.3591448882</v>
       </c>
       <c r="G6" t="n">
-        <v>404563.5399068912</v>
+        <v>406598.3591448881</v>
       </c>
       <c r="H6" t="n">
-        <v>404563.5399068909</v>
+        <v>406598.3591448879</v>
       </c>
       <c r="I6" t="n">
-        <v>404563.5399068912</v>
+        <v>406598.3591448882</v>
       </c>
       <c r="J6" t="n">
-        <v>228140.3207142979</v>
+        <v>230175.1399522953</v>
       </c>
       <c r="K6" t="n">
-        <v>404563.5399068914</v>
+        <v>406598.3591448882</v>
       </c>
       <c r="L6" t="n">
-        <v>404563.5399068915</v>
+        <v>406598.3591448882</v>
       </c>
       <c r="M6" t="n">
-        <v>269762.5246730542</v>
+        <v>271797.3439110509</v>
       </c>
       <c r="N6" t="n">
-        <v>404563.5399068912</v>
+        <v>406598.3591448881</v>
       </c>
       <c r="O6" t="n">
-        <v>404563.5399068911</v>
+        <v>406598.3591448881</v>
       </c>
       <c r="P6" t="n">
-        <v>404563.5399068913</v>
+        <v>406598.3591448881</v>
       </c>
     </row>
   </sheetData>
@@ -26738,22 +26738,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>215.1153445621287</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>319.3689144237189</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>152.8231845262164</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>120.168123766492</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>19.31181648936854</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>47.39101838798314</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>10.7459276973573</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>256.0518124789454</v>
+        <v>263.1568502036049</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>192.4254892562129</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-6.406792338033295e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28336,16 +28336,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-7.209750360682821e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.485267412699738e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.485267412699738e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-5.485267412699738e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,16 +28375,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-5.485267412699738e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-5.485267412699738e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-5.485267412699738e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-5.485267412699738e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-1.501867628037044e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-6.406792338033295e-12</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29256,7 +29256,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-4.981194299656196e-12</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -31279,46 +31279,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31455,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32473,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>213.3700978777704</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35902,10 +35902,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330521</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>367.6637655623854</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958057</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315247</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36683,19 +36683,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>280.6254601782248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315247</v>
@@ -37151,16 +37151,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38102,10 +38102,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1993713.531454018</v>
+        <v>2069243.201118823</v>
       </c>
     </row>
     <row r="7">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>167.6184971013519</v>
+        <v>267.3539114077835</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.00879565572094</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>42.61789643688657</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>280.3612400821518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>134.6751203255739</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>13.96214174992418</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>115.1187825524127</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>143.7191955381066</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>192.5627265154902</v>
       </c>
       <c r="V10" t="n">
-        <v>59.71215406761515</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>104.6354350586134</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>101.289814786355</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>122.2407729770142</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>159.2830655961215</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>131.6255386195488</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>210.968521252134</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>271.8687459790764</v>
       </c>
       <c r="V28" t="n">
-        <v>199.8217265445594</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>60.61661699143662</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>39.34816428259347</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385032</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174139</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3478,16 +3480,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>180.2851782418414</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>122.3137095599312</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>173.3098319902318</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>125.8199811479242</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1919.063478780785</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C2" t="n">
-        <v>1550.100961840373</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>2478.514423990285</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.375092014473</v>
+        <v>2388.358616186807</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V4" t="n">
-        <v>295.8809182883532</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>295.8809182883532</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>295.8809182883532</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>295.8809182883532</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4580,13 +4582,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520779</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520779</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2140.292562720626</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2140.292562720626</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>2140.292562720626</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y5" t="n">
-        <v>1750.153230744814</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600566</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600566</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>698.7120650600566</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>698.7120650600566</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600566</v>
+        <v>714.0258107216623</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600566</v>
+        <v>714.0258107216623</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600566</v>
+        <v>714.0258107216623</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600566</v>
+        <v>714.0258107216623</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600566</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600566</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600566</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600566</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600566</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.506187451446</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="C8" t="n">
-        <v>770.543670511034</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="D8" t="n">
-        <v>770.543670511034</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>770.543670511034</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
         <v>625.3727659270879</v>
@@ -4799,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.30824683495</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.30824683495</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491379</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491379</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>1916.245359491379</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y8" t="n">
-        <v>1526.106027515567</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942406</v>
+        <v>533.621179645333</v>
       </c>
       <c r="V10" t="n">
-        <v>490.2500993552354</v>
+        <v>533.621179645333</v>
       </c>
       <c r="W10" t="n">
-        <v>200.8329293182748</v>
+        <v>533.621179645333</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>533.621179645333</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5035,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,19 +5068,19 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>1096.475226584128</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>927.5390436562211</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>777.4224042438854</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>629.5093106614922</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>482.6193631635819</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>314.4440414834024</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5200,49 +5202,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>1278.123691414368</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,7 +5281,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>199.5300356889273</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>199.5300356889273</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>199.5300356889273</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>199.5300356889273</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>199.5300356889273</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>199.5300356889273</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5601,7 +5603,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8679414000756</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8679414000756</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8679414000756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8679414000756</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>220.6926197198962</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5704,19 +5706,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X19" t="n">
-        <v>241.9805482336712</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>557.8041243279824</v>
       </c>
     </row>
     <row r="20">
@@ -5729,37 +5731,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,28 +5770,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5817,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1133.156678913841</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913841</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W22" t="n">
-        <v>1133.156678913841</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.156678913841</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.156678913841</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5983,34 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6066,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>955.1031435655738</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>955.1031435655738</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W25" t="n">
-        <v>955.1031435655738</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>955.1031435655738</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>955.1031435655738</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2410.07093915895</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>1000.515960419048</v>
       </c>
       <c r="V28" t="n">
-        <v>1186.001039296941</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="W28" t="n">
-        <v>896.58386925998</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="X28" t="n">
-        <v>668.5943183619627</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.8017392184325</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,7 +6466,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3907.324136615208</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>4237.18676427924</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.6213191924214</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C31" t="n">
-        <v>326.6213191924214</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D31" t="n">
-        <v>326.6213191924214</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>326.6213191924214</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>326.6213191924214</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>158.445997512242</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>844.0280401273993</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W31" t="n">
-        <v>554.6108700904388</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X31" t="n">
-        <v>326.6213191924214</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y31" t="n">
-        <v>326.6213191924214</v>
+        <v>741.8439190510085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,19 +6691,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>216.9038434870658</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C34" t="n">
-        <v>216.9038434870658</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6889,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.9038434870658</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="35">
@@ -6926,61 +6928,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>709.4512536188992</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>527.3450129705745</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7169,34 +7171,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286132</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>665.6859735286132</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7391,25 +7393,25 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7476,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>654.1345339792618</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>654.1345339792618</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>504.0178945669261</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>504.0178945669261</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>504.0178945669261</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>335.8425728867467</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7576,7 +7578,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>874.927113122792</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>874.927113122792</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>874.927113122792</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>874.927113122792</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>654.1345339792618</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7837,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093289</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9249,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>85.30006332127709</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100656</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>283.6093329825497</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>44.2783933089227</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.20375367702259</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>26.67305539052192</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>75.26883114644332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>7.963755502506359</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>48.8408432116525</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>16.98993439866351</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>75.26883114644335</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>14.36860641950091</v>
       </c>
       <c r="V28" t="n">
-        <v>52.3159167792686</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>88.29721137609951</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>179.2364890695013</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>30.12558851170024</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25129,7 +25131,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>106.2378200947497</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>44.93311153869659</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>112.9275204083455</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>23.09384721961193</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>869228.230297801</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="F2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="J2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="H2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>527889.2306459072</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>527889.2306459073</v>
+      </c>
+      <c r="M2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.230645907</v>
       </c>
       <c r="N2" t="n">
         <v>527889.230645907</v>
@@ -26353,7 +26355,7 @@
         <v>527889.2306459071</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459072</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26433,25 +26435,25 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230226</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26470,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293114.5399413885</v>
+        <v>-293114.5399413888</v>
       </c>
       <c r="C6" t="n">
         <v>296853.3392731556</v>
       </c>
       <c r="D6" t="n">
-        <v>296853.3392731554</v>
+        <v>296853.3392731556</v>
       </c>
       <c r="E6" t="n">
-        <v>-118561.6773320079</v>
+        <v>-118561.6773320078</v>
       </c>
       <c r="F6" t="n">
+        <v>406598.3591448879</v>
+      </c>
+      <c r="G6" t="n">
         <v>406598.3591448882</v>
       </c>
-      <c r="G6" t="n">
-        <v>406598.3591448881</v>
-      </c>
       <c r="H6" t="n">
-        <v>406598.3591448879</v>
+        <v>406598.3591448882</v>
       </c>
       <c r="I6" t="n">
         <v>406598.3591448882</v>
       </c>
       <c r="J6" t="n">
-        <v>230175.1399522953</v>
+        <v>230175.1399522951</v>
       </c>
       <c r="K6" t="n">
-        <v>406598.3591448882</v>
+        <v>406598.3591448883</v>
       </c>
       <c r="L6" t="n">
-        <v>406598.3591448882</v>
+        <v>406598.3591448884</v>
       </c>
       <c r="M6" t="n">
-        <v>271797.3439110509</v>
+        <v>271797.3439110511</v>
       </c>
       <c r="N6" t="n">
         <v>406598.3591448881</v>
       </c>
       <c r="O6" t="n">
-        <v>406598.3591448881</v>
+        <v>406598.359144888</v>
       </c>
       <c r="P6" t="n">
-        <v>406598.3591448881</v>
+        <v>406598.3591448884</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>215.1153445621287</v>
+        <v>115.379930255697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.8231845262164</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>340.115945226594</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>47.39101838798314</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>10.7459276973573</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>15.16060820499012</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>239.5642590682702</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>263.1568502036049</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>93.71914772648751</v>
       </c>
       <c r="V10" t="n">
-        <v>192.4254892562129</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28153,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28287,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -29290,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -31279,46 +31281,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31759,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35583,10 +35585,10 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006117962</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887384</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349808</v>
@@ -35969,10 +35971,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>367.6637655623854</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951397</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37084,13 +37086,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>490.7027479140744</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2069243.201118823</v>
+        <v>2062226.186227111</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>267.3539114077835</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>321.5582202004961</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>38.73452730914806</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.61789643688657</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.2135161419529</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>6.908481403325515</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.96214174992418</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>115.1187825524127</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>15.14483238681376</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,19 +1302,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>192.5627265154902</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>104.6354350586134</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>101.289814786355</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>31.13654107019678</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>122.2407729770142</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>169.7438101404423</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>210.968521252134</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>271.8687459790764</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.49698904181446</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>39.34816428259347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.64843562452403</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>182.0841227578113</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>173.3098319902318</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>183.1796758467005</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1116.929889604773</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1116.929889604773</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1116.929889604773</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>705.9439848151658</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.358616186807</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y2" t="n">
-        <v>2388.358616186807</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>398.3338608103787</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>229.3976778824718</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>571.3497027553424</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.195303554219</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1465.195303554219</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4649,40 +4649,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>714.0258107216623</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>714.0258107216623</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>714.0258107216623</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>714.0258107216623</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>424.8522003762303</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>424.8522003762303</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>424.8522003762303</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>424.8522003762303</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1152.640269254486</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>1152.640269254486</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.779601230298</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1152.640269254486</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,28 +5059,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.475226584128</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C13" t="n">
-        <v>927.5390436562211</v>
+        <v>237.776412546148</v>
       </c>
       <c r="D13" t="n">
-        <v>777.4224042438854</v>
+        <v>237.776412546148</v>
       </c>
       <c r="E13" t="n">
-        <v>629.5093106614922</v>
+        <v>237.776412546148</v>
       </c>
       <c r="F13" t="n">
-        <v>482.6193631635819</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>314.4440414834024</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557898</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557898</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557898</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557898</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557898</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557898</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.123691414368</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>199.5300356889273</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>199.5300356889273</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>199.5300356889273</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>199.5300356889273</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>199.5300356889273</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324574</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3226148324574</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>199.5300356889273</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,64 +5503,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.8041243279824</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>388.8679414000756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>388.8679414000756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>388.8679414000756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>388.8679414000756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>220.6926197198962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>785.7936752259998</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>557.8041243279824</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>557.8041243279824</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>223.1552313137088</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5946,13 +5946,13 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>496.665036439558</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>268.6754855415407</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,7 +6086,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6174,22 +6174,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>862.1113288466635</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407766</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6205,70 +6205,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.325632214049</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1595.645765494011</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1925.508393158044</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2205.048458376741</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2410.07093915895</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829216</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1000.515960419048</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>745.8314722131613</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>745.8314722131613</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X28" t="n">
-        <v>745.8314722131613</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.8314722131613</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,7 +6560,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1009.579090436494</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>781.5895395384766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>741.8439190510085</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,7 +6973,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>891.2874889419389</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7180,22 +7180,22 @@
         <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>789.0753054710162</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>789.0753054710162</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>499.6581354340557</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7429,34 +7429,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,19 +7587,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
         <v>1090.100879744681</v>
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>85.3000633212781</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>127.6461250100656</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>283.6093329825497</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>6.267320147927705</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>44.2783933089227</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.20375367702259</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5731143188404</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>26.67305539052192</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.8408432116525</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="23">
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>75.26883114644335</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>14.36860641950091</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>216.0876643102803</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>179.2364890695013</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>104.1532296407661</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>112.9275204083455</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="41">
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>103.0576765518769</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="16">
@@ -26316,10 +26316,10 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
         <v>527889.2306459071</v>
@@ -26331,31 +26331,31 @@
         <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
+        <v>527889.2306459073</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="K2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="L2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="N2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="K2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459073</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="P2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26441,13 +26441,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26459,7 +26459,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293114.5399413888</v>
+        <v>-293114.5399413889</v>
       </c>
       <c r="C6" t="n">
-        <v>296853.3392731556</v>
+        <v>296853.3392731554</v>
       </c>
       <c r="D6" t="n">
-        <v>296853.3392731556</v>
+        <v>296853.3392731553</v>
       </c>
       <c r="E6" t="n">
-        <v>-118561.6773320078</v>
+        <v>-119536.2685917296</v>
       </c>
       <c r="F6" t="n">
-        <v>406598.3591448879</v>
+        <v>405623.7678851665</v>
       </c>
       <c r="G6" t="n">
-        <v>406598.3591448882</v>
+        <v>405623.7678851665</v>
       </c>
       <c r="H6" t="n">
-        <v>406598.3591448882</v>
+        <v>405623.7678851667</v>
       </c>
       <c r="I6" t="n">
-        <v>406598.3591448882</v>
+        <v>405623.7678851663</v>
       </c>
       <c r="J6" t="n">
-        <v>230175.1399522951</v>
+        <v>229200.5486925737</v>
       </c>
       <c r="K6" t="n">
-        <v>406598.3591448883</v>
+        <v>405623.7678851661</v>
       </c>
       <c r="L6" t="n">
-        <v>406598.3591448884</v>
+        <v>405623.7678851665</v>
       </c>
       <c r="M6" t="n">
-        <v>271797.3439110511</v>
+        <v>270822.752651329</v>
       </c>
       <c r="N6" t="n">
-        <v>406598.3591448881</v>
+        <v>405623.7678851665</v>
       </c>
       <c r="O6" t="n">
-        <v>406598.359144888</v>
+        <v>405623.7678851664</v>
       </c>
       <c r="P6" t="n">
-        <v>406598.3591448884</v>
+        <v>405623.7678851662</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,25 +26746,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>115.379930255697</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>92.22594982029892</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>109.8809457090643</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>131.0703856053968</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>340.115945226594</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>91.46952547873008</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>141.7069916148868</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.16060820499012</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>239.5642590682702</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>236.0793351214755</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>120.50172456543</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>93.71914772648751</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35585,10 +35585,10 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006117962</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>693.6972596887384</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>127.2102422761848</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>670.9270633411919</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>215.6591577951397</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502048</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37548,7 +37548,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38107,16 +38107,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>490.7027479140744</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2062226.186227111</v>
+        <v>2067165.449076143</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>321.5582202004961</v>
+        <v>120.1196874929964</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>38.73452730914806</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>263.2135161419529</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>96.95377689311815</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>6.908481403325515</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>15.14483238681376</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>325.2557485598855</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.46389722690827</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>128.78350070179</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>138.6902956258802</v>
       </c>
       <c r="F13" t="n">
-        <v>139.1537278750035</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>37.94743018765043</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>31.13654107019678</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185879</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>52.93287083751084</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>143.3158222056515</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>97.46558451418902</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.49698904181446</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>42.02510219382536</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>182.0841227578113</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>87.90024861273406</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>173.4405054918804</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>183.1796758467</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.892406545185</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="C2" t="n">
-        <v>1116.929889604773</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="D2" t="n">
-        <v>1116.929889604773</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="E2" t="n">
-        <v>1116.929889604773</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="F2" t="n">
-        <v>705.9439848151658</v>
+        <v>328.7419754949681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4372,10 +4372,10 @@
         <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.3338608103787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>229.3976778824718</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631125</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>1520.080031287786</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>1134.291778689542</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>723.3058738999346</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>305.3420657981214</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>721.1507201626711</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>573.2376265802779</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.788393182921</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F10" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005472</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635866</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036443</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,28 +5059,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>237.776412546148</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C13" t="n">
-        <v>237.776412546148</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="D13" t="n">
-        <v>237.776412546148</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="E13" t="n">
-        <v>237.776412546148</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441654</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>237.776412546148</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y13" t="n">
-        <v>237.776412546148</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,28 +5296,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>734.3105644220436</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>565.3743814941367</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.257742081801</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>531.109187020113</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>734.3105644220436</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,64 +5503,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1271.749344574921</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,13 +5740,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>223.1552313137088</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>634.0455001582214</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1445.448724257386</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1445.448724257386</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1445.448724257386</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>1445.448724257386</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>1156.031554220426</v>
       </c>
       <c r="X22" t="n">
-        <v>241.9805482336712</v>
+        <v>928.0420033224083</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>707.2494241788781</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,7 +5989,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,25 +6071,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.217138262064</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>510.7324460062433</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>510.7324460062433</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>692.3809108364831</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>692.3809108364831</v>
       </c>
     </row>
     <row r="26">
@@ -6202,55 +6202,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765186</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W28" t="n">
-        <v>496.665036439558</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X28" t="n">
-        <v>268.6754855415407</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881928</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6442,46 +6442,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,7 +6560,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515098</v>
@@ -6721,10 +6721,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6949,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>415.8104215925219</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>415.8104215925219</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>415.8104215925219</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>891.2874889419389</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>636.6030007360521</v>
+        <v>1410.12814064605</v>
       </c>
       <c r="W37" t="n">
-        <v>636.6030007360521</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="X37" t="n">
-        <v>636.6030007360521</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y37" t="n">
-        <v>415.8104215925219</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>245.130185042679</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="41">
@@ -7399,43 +7399,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>85.3000633212781</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>360.5026862907256</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>7.743667020688974</v>
       </c>
       <c r="F13" t="n">
-        <v>6.267320147927705</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>108.4865324589187</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>194.5731143188404</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>185.233183550236</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>144.9879391460924</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.26883114644332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>51.14988850402334</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>96.29904972659759</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.0876643102803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>125.2217189048025</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>104.1532296407661</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>164.2373947110939</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>113.0824928447106</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>103.0576765518773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="14">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583909</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583911</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583909</v>
-      </c>
       <c r="E2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="F2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="K2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="H2" t="n">
-        <v>527889.2306459073</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="N2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="J2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="O2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
         <v>527889.2306459069</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26447,7 +26447,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26456,10 +26456,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="P4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26493,13 +26493,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-293114.5399413889</v>
       </c>
       <c r="C6" t="n">
+        <v>296853.3392731553</v>
+      </c>
+      <c r="D6" t="n">
         <v>296853.3392731554</v>
       </c>
-      <c r="D6" t="n">
-        <v>296853.3392731553</v>
-      </c>
       <c r="E6" t="n">
-        <v>-119536.2685917296</v>
+        <v>-118659.1364579801</v>
       </c>
       <c r="F6" t="n">
-        <v>405623.7678851665</v>
+        <v>406500.900018916</v>
       </c>
       <c r="G6" t="n">
-        <v>405623.7678851665</v>
+        <v>406500.9000189161</v>
       </c>
       <c r="H6" t="n">
-        <v>405623.7678851667</v>
+        <v>406500.9000189158</v>
       </c>
       <c r="I6" t="n">
-        <v>405623.7678851663</v>
+        <v>406500.9000189157</v>
       </c>
       <c r="J6" t="n">
-        <v>229200.5486925737</v>
+        <v>230077.6808263232</v>
       </c>
       <c r="K6" t="n">
-        <v>405623.7678851661</v>
+        <v>406500.900018916</v>
       </c>
       <c r="L6" t="n">
-        <v>405623.7678851665</v>
+        <v>406500.9000189157</v>
       </c>
       <c r="M6" t="n">
-        <v>270822.752651329</v>
+        <v>271699.8847850786</v>
       </c>
       <c r="N6" t="n">
-        <v>405623.7678851665</v>
+        <v>406500.9000189159</v>
       </c>
       <c r="O6" t="n">
-        <v>405623.7678851664</v>
+        <v>406500.9000189157</v>
       </c>
       <c r="P6" t="n">
-        <v>405623.7678851662</v>
+        <v>406500.9000189158</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26758,13 +26758,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>92.22594982029892</v>
+        <v>293.6644825277986</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>109.8809457090643</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>91.46952547873008</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>226.968995871239</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>141.7069916148868</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>236.0793351214755</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>23.98522015752746</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>120.50172456543</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724716</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>127.2102422761848</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36682,19 +36682,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>670.9270633411919</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
